--- a/data/Ours.xlsx
+++ b/data/Ours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23011\Desktop\upload_github\Heterogeneous-Transfer-Learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E061658-B2A9-4B12-8BF6-2B90E1F9096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE308B9-46C0-4298-8F3D-3A896D81BA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57D91C6E-15D9-417D-9A82-5A538EA4AA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DE5DF-21AC-440B-854A-097AEABADE9C}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
